--- a/data/trans_orig/P14B08-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B08-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{712E5F49-D7CE-4B4B-A118-C12D13F84DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB650EAE-B3E9-40E6-94B8-E998759DAFBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{11E473D7-A614-45F0-844F-57B7D679CD51}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5B9916D4-C3DD-4AFE-9FDA-E2E2F2169951}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="282">
   <si>
     <t>Población cuya enfermedad crónica de pulmón le limita en 2012 (Tasa respuesta: 1,6%)</t>
   </si>
@@ -112,49 +112,49 @@
     <t>71,18%</t>
   </si>
   <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
   </si>
   <si>
     <t>68,33%</t>
   </si>
   <si>
-    <t>27,33%</t>
+    <t>26,3%</t>
   </si>
   <si>
     <t>70,36%</t>
   </si>
   <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
   </si>
   <si>
     <t>28,82%</t>
   </si>
   <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
   </si>
   <si>
     <t>31,67%</t>
   </si>
   <si>
-    <t>72,67%</t>
+    <t>73,7%</t>
   </si>
   <si>
     <t>29,64%</t>
   </si>
   <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -163,10 +163,10 @@
     <t>77,81%</t>
   </si>
   <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
   </si>
   <si>
     <t>81,26%</t>
@@ -175,19 +175,19 @@
     <t>84,99%</t>
   </si>
   <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
   </si>
   <si>
     <t>22,19%</t>
   </si>
   <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -196,10 +196,10 @@
     <t>15,01%</t>
   </si>
   <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -211,13 +211,13 @@
     <t>71,75%</t>
   </si>
   <si>
-    <t>29,56%</t>
+    <t>28,17%</t>
   </si>
   <si>
     <t>90,43%</t>
   </si>
   <si>
-    <t>70,35%</t>
+    <t>72,63%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -226,13 +226,13 @@
     <t>28,25%</t>
   </si>
   <si>
-    <t>70,44%</t>
+    <t>71,83%</t>
   </si>
   <si>
     <t>9,57%</t>
   </si>
   <si>
-    <t>29,65%</t>
+    <t>27,37%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -241,109 +241,109 @@
     <t>65,65%</t>
   </si>
   <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
   </si>
   <si>
     <t>65,5%</t>
   </si>
   <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
   </si>
   <si>
     <t>65,58%</t>
   </si>
   <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
   </si>
   <si>
     <t>34,35%</t>
   </si>
   <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
   </si>
   <si>
     <t>34,5%</t>
   </si>
   <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
   </si>
   <si>
     <t>34,42%</t>
   </si>
   <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
   </si>
   <si>
     <t>78,39%</t>
   </si>
   <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
   </si>
   <si>
     <t>77,88%</t>
   </si>
   <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
   </si>
   <si>
     <t>78,21%</t>
   </si>
   <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
   </si>
   <si>
     <t>21,61%</t>
   </si>
   <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
   </si>
   <si>
     <t>22,12%</t>
   </si>
   <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
   </si>
   <si>
     <t>21,79%</t>
   </si>
   <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -361,10 +361,7 @@
     <t>53,57%</t>
   </si>
   <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
+    <t>37,07%</t>
   </si>
   <si>
     <t>89,85%</t>
@@ -376,13 +373,10 @@
     <t>88,32%</t>
   </si>
   <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
   </si>
   <si>
     <t>10,15%</t>
@@ -394,118 +388,118 @@
     <t>11,68%</t>
   </si>
   <si>
-    <t>35,35%</t>
+    <t>34,09%</t>
   </si>
   <si>
     <t>68,5%</t>
   </si>
   <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
   </si>
   <si>
     <t>77,66%</t>
   </si>
   <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
   </si>
   <si>
     <t>72,13%</t>
   </si>
   <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
   </si>
   <si>
     <t>31,5%</t>
   </si>
   <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
   </si>
   <si>
     <t>22,34%</t>
   </si>
   <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
   </si>
   <si>
     <t>27,87%</t>
   </si>
   <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
   </si>
   <si>
     <t>64,66%</t>
   </si>
   <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
   </si>
   <si>
     <t>84,22%</t>
   </si>
   <si>
-    <t>54,54%</t>
+    <t>51,44%</t>
   </si>
   <si>
     <t>75,0%</t>
   </si>
   <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
   </si>
   <si>
     <t>35,34%</t>
   </si>
   <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
   </si>
   <si>
     <t>15,78%</t>
   </si>
   <si>
-    <t>45,46%</t>
+    <t>48,56%</t>
   </si>
   <si>
     <t>25,0%</t>
   </si>
   <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
   </si>
   <si>
     <t>67,41%</t>
   </si>
   <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
   </si>
   <si>
     <t>76,75%</t>
@@ -514,19 +508,19 @@
     <t>75,74%</t>
   </si>
   <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
   </si>
   <si>
     <t>32,59%</t>
   </si>
   <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -535,64 +529,64 @@
     <t>24,26%</t>
   </si>
   <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
   </si>
   <si>
     <t>68,91%</t>
   </si>
   <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
   </si>
   <si>
     <t>86,03%</t>
   </si>
   <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
   </si>
   <si>
     <t>75,87%</t>
   </si>
   <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
   </si>
   <si>
     <t>31,09%</t>
   </si>
   <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
   </si>
   <si>
     <t>13,97%</t>
   </si>
   <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
   </si>
   <si>
     <t>24,13%</t>
   </si>
   <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
   </si>
   <si>
     <t>Población cuya enfermedad crónica de pulmón le limita en 2023 (Tasa respuesta: 3,09%)</t>
@@ -604,16 +598,16 @@
     <t>73,37%</t>
   </si>
   <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
   </si>
   <si>
     <t>80,29%</t>
   </si>
   <si>
-    <t>57,07%</t>
+    <t>52,37%</t>
   </si>
   <si>
     <t>95,62%</t>
@@ -625,10 +619,10 @@
     <t>26,63%</t>
   </si>
   <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
   </si>
   <si>
     <t>19,71%</t>
@@ -637,277 +631,259 @@
     <t>4,38%</t>
   </si>
   <si>
-    <t>42,93%</t>
+    <t>47,63%</t>
   </si>
   <si>
     <t>71,49%</t>
   </si>
   <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
   </si>
   <si>
     <t>50,61%</t>
   </si>
   <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
   </si>
   <si>
     <t>62,96%</t>
   </si>
   <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
   </si>
   <si>
     <t>28,51%</t>
   </si>
   <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
   </si>
   <si>
     <t>49,39%</t>
   </si>
   <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
   </si>
   <si>
     <t>37,04%</t>
   </si>
   <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
   </si>
   <si>
     <t>69,95%</t>
   </si>
   <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
   </si>
   <si>
     <t>67,35%</t>
   </si>
   <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
   </si>
   <si>
     <t>68,62%</t>
   </si>
   <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
   </si>
   <si>
     <t>30,05%</t>
   </si>
   <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
   </si>
   <si>
     <t>32,65%</t>
   </si>
   <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
   </si>
   <si>
     <t>31,38%</t>
   </si>
   <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
   </si>
   <si>
     <t>62,23%</t>
   </si>
   <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
   </si>
   <si>
     <t>44,88%</t>
   </si>
   <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
   </si>
   <si>
     <t>53,94%</t>
   </si>
   <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
   </si>
   <si>
     <t>37,77%</t>
   </si>
   <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
   </si>
   <si>
     <t>55,12%</t>
   </si>
   <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
   </si>
   <si>
     <t>46,06%</t>
   </si>
   <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
   </si>
   <si>
     <t>44,73%</t>
   </si>
   <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
   </si>
   <si>
     <t>59,32%</t>
   </si>
   <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
   </si>
   <si>
     <t>55,27%</t>
   </si>
   <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
   </si>
   <si>
     <t>40,68%</t>
   </si>
   <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
   </si>
   <si>
     <t>62,48%</t>
   </si>
   <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
+    <t>53,14%</t>
   </si>
   <si>
     <t>58,86%</t>
   </si>
   <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
   </si>
   <si>
     <t>60,59%</t>
   </si>
   <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
   </si>
   <si>
     <t>37,52%</t>
   </si>
   <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
+    <t>46,86%</t>
   </si>
   <si>
     <t>41,14%</t>
   </si>
   <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
   </si>
   <si>
     <t>39,41%</t>
   </si>
   <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
   </si>
 </sst>
 </file>
@@ -1319,7 +1295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72699C51-9EDF-4327-A7C6-E1A9D2CE23C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018EEB4E-F600-4201-ACBF-F6DF9BA64F75}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2382,7 +2358,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E854F645-D73D-42E8-BB5D-79E070C920F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78BFC6DB-50CD-4159-A4DD-EC820A723CD9}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2655,10 +2631,10 @@
         <v>6799</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>11</v>
@@ -2670,10 +2646,10 @@
         <v>8578</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>11</v>
@@ -2685,10 +2661,10 @@
         <v>15377</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>11</v>
@@ -2706,13 +2682,13 @@
         <v>1064</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2721,13 +2697,13 @@
         <v>969</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -2736,13 +2712,13 @@
         <v>2033</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2810,13 +2786,13 @@
         <v>14879</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -2825,13 +2801,13 @@
         <v>11101</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -2840,13 +2816,13 @@
         <v>25980</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2861,13 +2837,13 @@
         <v>6843</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -2876,13 +2852,13 @@
         <v>3194</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M11" s="7">
         <v>10</v>
@@ -2891,13 +2867,13 @@
         <v>10037</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2965,13 +2941,13 @@
         <v>8024</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -2980,10 +2956,10 @@
         <v>11720</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>11</v>
@@ -2995,13 +2971,13 @@
         <v>19744</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3016,13 +2992,13 @@
         <v>4387</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -3031,13 +3007,13 @@
         <v>2196</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -3046,13 +3022,13 @@
         <v>6583</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3120,13 +3096,13 @@
         <v>15231</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -3138,7 +3114,7 @@
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -3150,13 +3126,13 @@
         <v>22992</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3171,13 +3147,13 @@
         <v>7363</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3192,7 +3168,7 @@
         <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -3201,13 +3177,13 @@
         <v>7363</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3275,13 +3251,13 @@
         <v>45810</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H19" s="7">
         <v>35</v>
@@ -3290,28 +3266,28 @@
         <v>39160</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M19" s="7">
         <v>80</v>
       </c>
       <c r="N19" s="7">
-        <v>84971</v>
+        <v>84972</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3326,13 +3302,13 @@
         <v>20670</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -3341,13 +3317,13 @@
         <v>6359</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M20" s="7">
         <v>27</v>
@@ -3356,13 +3332,13 @@
         <v>27028</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3404,7 +3380,7 @@
         <v>107</v>
       </c>
       <c r="N21" s="7">
-        <v>111999</v>
+        <v>112000</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>13</v>
@@ -3439,7 +3415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD2A483D-72FE-4FFC-BCE6-8B177A57AF6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CB2755D-5D5E-4103-8FEB-EFBF3D12FA0E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3456,7 +3432,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3566,7 +3542,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -3578,13 +3554,13 @@
         <v>5065</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -3593,13 +3569,13 @@
         <v>7491</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3620,7 +3596,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -3629,13 +3605,13 @@
         <v>1839</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -3644,13 +3620,13 @@
         <v>1839</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3718,13 +3694,13 @@
         <v>13953</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H7" s="7">
         <v>13</v>
@@ -3733,13 +3709,13 @@
         <v>6828</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M7" s="7">
         <v>33</v>
@@ -3748,13 +3724,13 @@
         <v>20781</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3769,13 +3745,13 @@
         <v>5563</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H8" s="7">
         <v>13</v>
@@ -3784,13 +3760,13 @@
         <v>6662</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M8" s="7">
         <v>21</v>
@@ -3799,13 +3775,13 @@
         <v>12225</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3873,13 +3849,13 @@
         <v>17032</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -3888,13 +3864,13 @@
         <v>17400</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M10" s="7">
         <v>47</v>
@@ -3903,13 +3879,13 @@
         <v>34432</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3924,13 +3900,13 @@
         <v>7315</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="H11" s="7">
         <v>15</v>
@@ -3939,13 +3915,13 @@
         <v>8434</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M11" s="7">
         <v>24</v>
@@ -3954,13 +3930,13 @@
         <v>15749</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4028,13 +4004,13 @@
         <v>10916</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -4043,13 +4019,13 @@
         <v>7204</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M13" s="7">
         <v>20</v>
@@ -4058,13 +4034,13 @@
         <v>18120</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,13 +4055,13 @@
         <v>6625</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
@@ -4094,13 +4070,13 @@
         <v>8847</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M14" s="7">
         <v>19</v>
@@ -4109,13 +4085,13 @@
         <v>15472</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,13 +4159,13 @@
         <v>11206</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H16" s="7">
         <v>32</v>
@@ -4198,13 +4174,13 @@
         <v>20285</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>259</v>
+        <v>123</v>
       </c>
       <c r="M16" s="7">
         <v>48</v>
@@ -4213,13 +4189,13 @@
         <v>31491</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>260</v>
+        <v>131</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,13 +4210,13 @@
         <v>13847</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -4249,13 +4225,13 @@
         <v>13913</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>267</v>
+        <v>132</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="M17" s="7">
         <v>39</v>
@@ -4264,13 +4240,13 @@
         <v>27760</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>269</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4338,13 +4314,13 @@
         <v>55532</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>274</v>
+        <v>56</v>
       </c>
       <c r="H19" s="7">
         <v>90</v>
@@ -4353,13 +4329,13 @@
         <v>56783</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="M19" s="7">
         <v>163</v>
@@ -4368,13 +4344,13 @@
         <v>112315</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4389,13 +4365,13 @@
         <v>33351</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>282</v>
+        <v>61</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="H20" s="7">
         <v>63</v>
@@ -4404,13 +4380,13 @@
         <v>39694</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="M20" s="7">
         <v>107</v>
@@ -4419,13 +4395,13 @@
         <v>73045</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14B08-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B08-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB650EAE-B3E9-40E6-94B8-E998759DAFBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81BF00E3-E795-4CF1-8A33-B0DF51913519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5B9916D4-C3DD-4AFE-9FDA-E2E2F2169951}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6AEF51C5-3213-4360-9B73-6AEB85B3B046}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="278">
   <si>
     <t>Población cuya enfermedad crónica de pulmón le limita en 2012 (Tasa respuesta: 1,6%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -106,67 +106,67 @@
     <t>30,57%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>71,18%</t>
   </si>
   <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
   </si>
   <si>
     <t>68,33%</t>
   </si>
   <si>
-    <t>26,3%</t>
+    <t>27,29%</t>
   </si>
   <si>
     <t>70,36%</t>
   </si>
   <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
   </si>
   <si>
     <t>28,82%</t>
   </si>
   <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
   </si>
   <si>
     <t>31,67%</t>
   </si>
   <si>
-    <t>73,7%</t>
+    <t>72,71%</t>
   </si>
   <si>
     <t>29,64%</t>
   </si>
   <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>77,81%</t>
   </si>
   <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
   </si>
   <si>
     <t>81,26%</t>
@@ -175,19 +175,19 @@
     <t>84,99%</t>
   </si>
   <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
   </si>
   <si>
     <t>22,19%</t>
   </si>
   <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -196,13 +196,13 @@
     <t>15,01%</t>
   </si>
   <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>86,51%</t>
@@ -211,13 +211,13 @@
     <t>71,75%</t>
   </si>
   <si>
-    <t>28,17%</t>
+    <t>29,36%</t>
   </si>
   <si>
     <t>90,43%</t>
   </si>
   <si>
-    <t>72,63%</t>
+    <t>72,18%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -226,13 +226,13 @@
     <t>28,25%</t>
   </si>
   <si>
-    <t>71,83%</t>
+    <t>70,64%</t>
   </si>
   <si>
     <t>9,57%</t>
   </si>
   <si>
-    <t>27,37%</t>
+    <t>27,82%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -241,597 +241,591 @@
     <t>65,65%</t>
   </si>
   <si>
-    <t>36,52%</t>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuya enfermedad crónica de pulmón le limita en 2016 (Tasa respuesta: 1,63%)</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
   </si>
   <si>
     <t>86,47%</t>
   </si>
   <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
   </si>
   <si>
     <t>13,53%</t>
   </si>
   <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuya enfermedad crónica de pulmón le limita en 2015 (Tasa respuesta: 1,63%)</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
   </si>
   <si>
     <t>11,68%</t>
   </si>
   <si>
-    <t>34,09%</t>
+    <t>35,82%</t>
   </si>
   <si>
     <t>68,5%</t>
   </si>
   <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
   </si>
   <si>
     <t>77,66%</t>
   </si>
   <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>Población cuya enfermedad crónica de pulmón le limita en 2023 (Tasa respuesta: 3,09%)</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
     <t>46,85%</t>
   </si>
   <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>51,44%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>67,41%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>Población cuya enfermedad crónica de pulmón le limita en 2023 (Tasa respuesta: 3,09%)</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>70,64%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
     <t>36,23%</t>
   </si>
   <si>
@@ -859,9 +853,6 @@
     <t>54,06%</t>
   </si>
   <si>
-    <t>66,94%</t>
-  </si>
-  <si>
     <t>37,52%</t>
   </si>
   <si>
@@ -878,9 +869,6 @@
   </si>
   <si>
     <t>39,41%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
   </si>
   <si>
     <t>45,94%</t>
@@ -1295,7 +1283,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018EEB4E-F600-4201-ACBF-F6DF9BA64F75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A92FCE1-D5C6-4DEB-B832-88D3C81B9F5D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2358,7 +2346,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78BFC6DB-50CD-4159-A4DD-EC820A723CD9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C048C87-1358-4CC0-8E71-B04A4179399B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2631,10 +2619,10 @@
         <v>6799</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>11</v>
@@ -2646,7 +2634,7 @@
         <v>8578</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>109</v>
@@ -2682,13 +2670,13 @@
         <v>1064</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2697,7 +2685,7 @@
         <v>969</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>17</v>
@@ -3278,7 +3266,7 @@
         <v>80</v>
       </c>
       <c r="N19" s="7">
-        <v>84972</v>
+        <v>84971</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>171</v>
@@ -3380,7 +3368,7 @@
         <v>107</v>
       </c>
       <c r="N21" s="7">
-        <v>112000</v>
+        <v>111999</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>13</v>
@@ -3415,7 +3403,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CB2755D-5D5E-4103-8FEB-EFBF3D12FA0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4419EBA0-63F6-494F-A880-4D9F90F9019D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3700,7 +3688,7 @@
         <v>199</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>200</v>
+        <v>92</v>
       </c>
       <c r="H7" s="7">
         <v>13</v>
@@ -3709,13 +3697,13 @@
         <v>6828</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M7" s="7">
         <v>33</v>
@@ -3724,13 +3712,13 @@
         <v>20781</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3745,13 +3733,13 @@
         <v>5563</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H8" s="7">
         <v>13</v>
@@ -3760,13 +3748,13 @@
         <v>6662</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M8" s="7">
         <v>21</v>
@@ -3775,13 +3763,13 @@
         <v>12225</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3849,13 +3837,13 @@
         <v>17032</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -3864,13 +3852,13 @@
         <v>17400</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M10" s="7">
         <v>47</v>
@@ -3879,13 +3867,13 @@
         <v>34432</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3900,13 +3888,13 @@
         <v>7315</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H11" s="7">
         <v>15</v>
@@ -3915,13 +3903,13 @@
         <v>8434</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M11" s="7">
         <v>24</v>
@@ -3930,13 +3918,13 @@
         <v>15749</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4004,13 +3992,13 @@
         <v>10916</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -4019,13 +4007,13 @@
         <v>7204</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M13" s="7">
         <v>20</v>
@@ -4034,13 +4022,13 @@
         <v>18120</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>242</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4055,13 +4043,13 @@
         <v>6625</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
@@ -4070,13 +4058,13 @@
         <v>8847</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="M14" s="7">
         <v>19</v>
@@ -4085,13 +4073,13 @@
         <v>15472</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>250</v>
+        <v>57</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4159,13 +4147,13 @@
         <v>11206</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H16" s="7">
         <v>32</v>
@@ -4174,10 +4162,10 @@
         <v>20285</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>123</v>
@@ -4189,13 +4177,13 @@
         <v>31491</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>131</v>
+        <v>253</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4210,13 +4198,13 @@
         <v>13847</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -4225,13 +4213,13 @@
         <v>13913</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>132</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="M17" s="7">
         <v>39</v>
@@ -4240,13 +4228,13 @@
         <v>27760</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>261</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4314,10 +4302,10 @@
         <v>55532</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>56</v>
@@ -4329,13 +4317,13 @@
         <v>56783</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M19" s="7">
         <v>163</v>
@@ -4344,13 +4332,13 @@
         <v>112315</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>273</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4365,13 +4353,13 @@
         <v>33351</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>61</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H20" s="7">
         <v>63</v>
@@ -4380,13 +4368,13 @@
         <v>39694</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="M20" s="7">
         <v>107</v>
@@ -4395,13 +4383,13 @@
         <v>73045</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>280</v>
+        <v>53</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
